--- a/data/net.xlsx
+++ b/data/net.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="list_net" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="164">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,22 +151,6 @@
   </si>
   <si>
     <t>AutoDNS:</t>
-  </si>
-  <si>
-    <t>net -a enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -186,6 +170,357 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>net -t portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -t port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should display a list of physical portal IP configurations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should display a list of port configurations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal configurations should be listed on ctrl 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port configurations should be listed on ctrl 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t portal -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t port -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -t portal -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -t port -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static IP info should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should display network configurations by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should display a list of physical portal IP configurations by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should display a list of port configurations by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal configurations should be listed on ctrl 2 by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port configurations should be listed on ctrl 2 by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static IP info should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 should be enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 2 should be enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal should be modified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhcp should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "autodns=10.84.2.255,defaultroute=ioportal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "autodns=10.84.2.1,defaultroute=staticip,ctrl2portalid=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "autodns=10.84.2.0,defaultroute=floatingip,ctrl2portalid=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 3 -t portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal should be modified by "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.256,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.256.0,gateway=10.256.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=test,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=test,gateway=10.256.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.256.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -c 2 -s "dhcp=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -c 3 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 3 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-c: invalid setting 3 (1,2)</t>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=10.84.2.256,defaultroute=floatingip,ctrl2portalid=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=10.84.2.20,defaultroute=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "ctrl2portalid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "ctrl2portalid=3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=test,defaultroute=floatingip,ctrl2portalid=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "port=1,jumbofram=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 2 -s "port=test,jumbofram=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "port=enable,jumbofram=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 2 -s "port=enable,jumbofram=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 3 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "test=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -c 2 -s "test=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -c 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "test=1,jumbofram=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -m -c </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -m -c 2 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -t portal -c 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -t portal -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -c 2 -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -c 2 -t port -p 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -c 2 -t port -p 2 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>net -a enable -t port</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,103 +529,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>net -t portal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 2 -t portal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 2 -t port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should display a list of physical portal IP configurations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should display a list of port configurations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal configurations should be listed on ctrl 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port configurations should be listed on ctrl 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t portal -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t port -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 2 -t portal -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 2 -t port -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static IP info should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should display network configurations by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should display a list of physical portal IP configurations by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should display a list of port configurations by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal configurations should be listed on ctrl 2 by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port configurations should be listed on ctrl 2 by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static IP info should be listed by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 1 should be enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 2 should be enable</t>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m -c 2 -t portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -t portal -c 2 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=enable,defaultroute=floatingip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=disable,defaultroute=staticip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=disable,defaultroute=ioportal,ctrl2portalid=2,wol=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=enable,defaultroute=ioportal,ctrl2portalid=1,wol=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable ipv4 for portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable ipv4 for portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable ipv6 for portal should be enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,7 +589,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>physical portal should be modified</t>
+    <t>net -a disable -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable ipv6 for portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To enable IO support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To disable IO support</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,91 +621,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>net -a mod -t portal -c 2 -s "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 2 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dhcp should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "autodns=10.84.2.255,defaultroute=ioportal"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=10.84.2.255,defaultroute=ioportal,wol=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=10.84.2.0,defaultroute=floatingip,ctrl2portalid=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=10.84.2.1,defaultroute=staticip,ctrl2portalid=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "autodns=10.84.2.1,defaultroute=staticip,ctrl2portalid=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "autodns=10.84.2.0,defaultroute=floatingip,ctrl2portalid=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 2 -s "port=disable,jumbofram=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "port=enable,jumbofram=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 3 -t portal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal should be modified by "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal should be modified by "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m</t>
+    <t>SupportIO: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportIO: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "port=enable,jumboframe=disable"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -398,201 +645,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>net -a mod -c 2 -t port -p 2 -s "port=disable,jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>net -t port -p 2</t>
-  </si>
-  <si>
-    <t>net -a enable -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.256,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.256.0,gateway=10.256.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=test,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=test,gateway=10.256.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.256.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 2 -s "dhcp=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 3 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 3 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-c: invalid setting 3 (1,2)</t>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=10.84.2.256,defaultroute=floatingip,ctrl2portalid=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=10.84.2.20,defaultroute=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "ctrl2portalid=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "ctrl2portalid=3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=test,defaultroute=floatingip,ctrl2portalid=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "port=1,jumbofram=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 2 -s "port=test,jumbofram=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "port=enable,jumbofram=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 2 -s "port=enable,jumbofram=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 3 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "test=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 2 -s "test=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 2 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "test=1,jumbofram=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -m -c </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -m -c 2 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -t </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -t portal -c 2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -t portal -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -c 2 -t </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -c 2 -t port -p 1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -c 2 -t port -p 2 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortStatus: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumboFrame: Enabled</t>
+  </si>
+  <si>
+    <t>JumboFrame: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortStatus: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "ip=10.84.2.90,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +1031,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -993,7 +1069,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1016,10 +1092,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1042,34 +1118,34 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1220,10 +1296,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1246,34 +1322,34 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1285,25 +1361,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="100.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="109.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1317,98 +1393,86 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>150</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>137</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>75</v>
@@ -1416,10 +1480,10 @@
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>75</v>
@@ -1427,46 +1491,134 @@
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1516,7 +1668,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1527,18 +1679,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1549,7 +1701,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1560,7 +1712,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1571,18 +1723,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1593,7 +1745,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1604,7 +1756,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1616,7 +1768,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1628,7 +1780,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1640,7 +1792,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1652,7 +1804,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1664,19 +1816,19 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1688,7 +1840,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1700,7 +1852,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1712,7 +1864,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1724,7 +1876,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1736,7 +1888,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1748,7 +1900,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1759,7 +1911,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1770,7 +1922,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1781,7 +1933,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1834,7 +1986,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1845,7 +1997,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1856,7 +2008,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1867,7 +2019,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1878,7 +2030,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1889,7 +2041,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1900,7 +2052,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1911,7 +2063,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1922,7 +2074,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1933,7 +2085,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1944,7 +2096,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1963,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1986,7 +2138,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1997,7 +2149,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2008,7 +2160,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2019,7 +2171,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2030,7 +2182,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2041,7 +2193,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2052,7 +2204,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2063,7 +2215,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2074,7 +2226,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2085,10 +2237,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -2096,7 +2248,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2107,7 +2259,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2118,7 +2270,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2129,7 +2281,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>

--- a/data/net.xlsx
+++ b/data/net.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="list_net" sheetId="1" r:id="rId1"/>
     <sheet name="list_net_by_verbose_mode" sheetId="11" r:id="rId2"/>
     <sheet name="enable_modify_disable" sheetId="12" r:id="rId3"/>
-    <sheet name="invalid_setting_for_net" sheetId="8" r:id="rId4"/>
-    <sheet name="invalid_option_for_net" sheetId="9" r:id="rId5"/>
-    <sheet name="missing_parameter_for_net" sheetId="10" r:id="rId6"/>
+    <sheet name="need_manual_test" sheetId="13" r:id="rId4"/>
+    <sheet name="invalid_setting_for_net" sheetId="8" r:id="rId5"/>
+    <sheet name="invalid_option_for_net" sheetId="9" r:id="rId6"/>
+    <sheet name="missing_parameter_for_net" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="186">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>physical portal should be modified</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,47 +562,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>enable ipv4 for portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable ipv4 for portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable ipv6 for portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable ipv6 for portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To enable IO support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To disable IO support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>net -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enable ipv4 for portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable ipv4 for portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable ipv6 for portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable ipv6 for portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -m -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -m -f ipv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -m -f ipv4</t>
+    <t>SupportIO: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportIO: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "port=enable,jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t port -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 2 -s "port=disable,jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t port -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortStatus: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumboFrame: Enabled</t>
+  </si>
+  <si>
+    <t>JumboFrame: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortStatus: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "ip=10.84.2.90,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -613,62 +665,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To disable IO support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>net -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SupportIO: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupportIO: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "port=enable,jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t port -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 2 -s "port=disable,jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t port -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortStatus: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumboFrame: Enabled</t>
-  </si>
-  <si>
-    <t>JumboFrame: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortStatus: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "ip=10.84.2.90,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <t>ProtocolFamily: IPv4(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv6(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv6(Disabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical IPv4 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical IPv4 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical IPv6 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical IPv6 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv4 should be modified by "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv4 should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -f ipv6 -s "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv6 should be modified by "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv6 should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -t portal -c 2 -f ipv4 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -t portal -c 2 -f ipv6 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -f ipv4 -s "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "defaultroute=ioportal,ctrl2portalid=1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1215,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -1361,10 +1450,324 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,232 +1796,232 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +2031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -1660,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1668,7 +2071,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1679,18 +2082,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1701,7 +2104,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1712,7 +2115,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1723,18 +2126,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1745,7 +2148,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1756,7 +2159,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1768,7 +2171,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1780,7 +2183,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1792,7 +2195,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1804,7 +2207,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1816,19 +2219,19 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1840,7 +2243,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1852,7 +2255,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1864,7 +2267,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1876,7 +2279,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1888,7 +2291,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1900,7 +2303,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1911,7 +2314,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1922,7 +2325,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1933,7 +2336,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1948,7 +2351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1986,7 +2389,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1997,7 +2400,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2008,7 +2411,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2019,7 +2422,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2030,7 +2433,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2041,7 +2444,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2052,7 +2455,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2063,7 +2466,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2074,7 +2477,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2085,7 +2488,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2096,7 +2499,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2111,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2138,7 +2541,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2149,7 +2552,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2160,7 +2563,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2171,7 +2574,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2182,7 +2585,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2193,7 +2596,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2204,7 +2607,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2215,7 +2618,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2226,7 +2629,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2237,10 +2640,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -2248,7 +2651,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2259,7 +2662,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2270,7 +2673,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2281,7 +2684,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>

--- a/data/net.xlsx
+++ b/data/net.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="list_net" sheetId="1" r:id="rId1"/>
-    <sheet name="list_net_by_verbose_mode" sheetId="11" r:id="rId2"/>
-    <sheet name="enable_modify_disable" sheetId="12" r:id="rId3"/>
-    <sheet name="need_manual_test" sheetId="13" r:id="rId4"/>
-    <sheet name="invalid_setting_for_net" sheetId="8" r:id="rId5"/>
-    <sheet name="invalid_option_for_net" sheetId="9" r:id="rId6"/>
-    <sheet name="missing_parameter_for_net" sheetId="10" r:id="rId7"/>
+    <sheet name="need_manual_test" sheetId="13" r:id="rId1"/>
+    <sheet name="list_net" sheetId="1" r:id="rId2"/>
+    <sheet name="list_net_by_verbose_mode" sheetId="11" r:id="rId3"/>
+    <sheet name="disable_enable_net" sheetId="12" r:id="rId4"/>
+    <sheet name="modify_net" sheetId="14" r:id="rId5"/>
+    <sheet name="invalid_setting_for_net" sheetId="8" r:id="rId6"/>
+    <sheet name="invalid_option_for_net" sheetId="9" r:id="rId7"/>
+    <sheet name="missing_parameter_for_net" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="225">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +112,6 @@
     <t>ActiveCtrlId:</t>
   </si>
   <si>
-    <t xml:space="preserve">Port: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxSupportedSpeed:</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
   </si>
   <si>
     <t>IPMask:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryDNS: </t>
-  </si>
-  <si>
-    <t>SecondaryDNS:</t>
   </si>
   <si>
     <t>Gateway:</t>
@@ -195,23 +186,401 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>port configurations should be listed on ctrl 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>net -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static IP info should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 should be enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 3 -t portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.256,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.256.0,gateway=10.256.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=test,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=test,gateway=10.256.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.256.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -c 2 -s "dhcp=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -c 3 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 3 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-c: invalid setting 3 (1,2)</t>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=10.84.2.256,defaultroute=floatingip,ctrl2portalid=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=10.84.2.20,defaultroute=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=test,defaultroute=floatingip,ctrl2portalid=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "test=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -c 2 -s "test=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -c 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -m -c </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -m -c 2 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -t portal -c 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -t portal -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -c 2 -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -c 2 -t port -p 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">net -a mod -c 2 -t port -p 2 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m -c 2 -t portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t port -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumboFrame: Enabled</t>
+  </si>
+  <si>
+    <t>JumboFrame: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv4(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv6(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv6(Disabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv4 should be modified by "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv4 should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -f ipv6 -s "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv6 should be modified by "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv6 should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -t port -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -t port -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 configurations should be listed on ctrl 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 2 configurations should be listed on ctrl 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all port configurations should be listed on ctrl 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortId:</t>
+  </si>
+  <si>
+    <t>CtrlId:</t>
+  </si>
+  <si>
+    <t>JumboFrame:</t>
+  </si>
+  <si>
+    <t>PortStatus:</t>
+  </si>
+  <si>
+    <t>LinkStats:</t>
+  </si>
+  <si>
+    <t>MacAddress:</t>
+  </si>
+  <si>
+    <t>MaxSupportSpeed:</t>
+  </si>
+  <si>
+    <t>CurrentSpeed:</t>
+  </si>
+  <si>
+    <t>RelativePortals:</t>
+  </si>
+  <si>
+    <t>LinkLocalIP:</t>
+  </si>
+  <si>
+    <t>LinkLocalIPMask:</t>
+  </si>
+  <si>
+    <t>should display a list of physical portal IP configurations by verbose mode</t>
+  </si>
+  <si>
+    <t>should display a list of port configurations by verbose mode</t>
+  </si>
+  <si>
+    <t>all port configurations should be listed on ctrl 2 by verbose mode</t>
+  </si>
+  <si>
+    <t>port 1 configurations should be listed on ctrl 2 by verbose mode</t>
+  </si>
+  <si>
+    <t>port 2 configurations should be listed on ctrl 2 by verbose mode</t>
+  </si>
+  <si>
+    <t>static IP info should be listed by verbose mode</t>
+  </si>
+  <si>
+    <t>portal configurations should be listed on ctrl 2 by verbose mode</t>
+  </si>
+  <si>
+    <t>net -v</t>
   </si>
   <si>
     <t>net -t portal -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>net -t port -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 2 -t portal -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>net -c 2 -t port -v</t>
+  </si>
+  <si>
+    <t>net -c 2 -t port -p 1 -v</t>
+  </si>
+  <si>
+    <t>net -c 2 -t port -p 2 -v</t>
+  </si>
+  <si>
+    <t>net -m -v</t>
+  </si>
+  <si>
+    <t>net -m -c 2 -t portal -v</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Ctrl1PrimaryDNS:</t>
+  </si>
+  <si>
+    <t>Ctrl1SecondaryDNS:</t>
+  </si>
+  <si>
+    <t>Ctrl2PrimaryDNS:</t>
+  </si>
+  <si>
+    <t>Ctrl2SecondaryDNS:</t>
+  </si>
+  <si>
+    <t>SupportIO:</t>
+  </si>
+  <si>
+    <t>net -a enable -t portal -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -t portal -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -t port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m -t portal -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m -t portal -f ipv6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,47 +588,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>static IP info should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should display network configurations by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should display a list of physical portal IP configurations by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>should display a list of port configurations by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal configurations should be listed on ctrl 2 by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port configurations should be listed on ctrl 2 by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static IP info should be listed by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 1 should be enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 2 should be enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal should be modified</t>
+    <t>To enable IO support for port type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -t portal -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv4(Disabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -t port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To disable IO support for port type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -267,7 +616,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dhcp should be enabled</t>
+    <t>SupportIO: Disabled</t>
+  </si>
+  <si>
+    <t>SupportIO: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m -t portal -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal ipv4 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal ipv4 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m -t portal -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal ipv6 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal ipv6 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv6(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send command(steps)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -t portal -f ipv4 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -t portal -f ipv6 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=disable,defaultroute=staticip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable,defaultroute=ioportal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable,defaultroute=floatingip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=enable,defaultroute=ioportal,ctrl2portalid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "autodns=enable,defaultroute=ioportal,ctrl2portalid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "autodns=disable,defaultroute=staticip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 should be disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHCP: Disabled</t>
+  </si>
+  <si>
+    <t>IP: 10.84.2.163</t>
+  </si>
+  <si>
+    <t>IPMask: 255.255.255.0</t>
+  </si>
+  <si>
+    <t>Gateway: 10.84.2.1</t>
+  </si>
+  <si>
+    <t>DHCP: Enabled</t>
+  </si>
+  <si>
+    <t>net -a mod -t portal -f ipv4 -s "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -f ipv6 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -f ipv6 -s "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be modified by "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 1:2:3:4:5:6:7:8</t>
+  </si>
+  <si>
+    <t>IPMask: a:b:3:4:5:6:7:8</t>
+  </si>
+  <si>
+    <t>Gateway: ::</t>
+  </si>
+  <si>
+    <t>Ctrl2PrimaryDNS: 10.84.2.156</t>
+  </si>
+  <si>
+    <t>Ctrl2SecondaryDNS: 111.111.111.111</t>
+  </si>
+  <si>
+    <t>WakeOnLan: Enabled</t>
+  </si>
+  <si>
+    <t>DefaultRoute: floatingIP</t>
+  </si>
+  <si>
+    <t>Ctrl1PrimaryDNS: 10.84.2.253</t>
+  </si>
+  <si>
+    <t>Ctrl1SecondaryDNS: 111.111.111.222</t>
+  </si>
+  <si>
+    <t>WakeOnLan: Disabled</t>
+  </si>
+  <si>
+    <t>AutoDNS: Enabled</t>
+  </si>
+  <si>
+    <t>DefaultRoute: ioPortal</t>
+  </si>
+  <si>
+    <t>Ctrl2PortalId: 0</t>
+  </si>
+  <si>
+    <t>AutoDNS: Disabled</t>
+  </si>
+  <si>
+    <t>DefaultRoute: staticIP</t>
+  </si>
+  <si>
+    <t>LinkLocalIPMask: a:b:3:4:5:6:7:8</t>
+  </si>
+  <si>
+    <t>net -a enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -f ipv4 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "hcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,397 +818,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portal should be modified by "autodns=10.84.2.255,defaultroute=ioportal"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "autodns=10.84.2.1,defaultroute=staticip,ctrl2portalid=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "autodns=10.84.2.0,defaultroute=floatingip,ctrl2portalid=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 3 -t portal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal should be modified by "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal should be modified by "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.256,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.256.0,gateway=10.256.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=test,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=test,gateway=10.256.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.256.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 2 -s "dhcp=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 3 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 3 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-c: invalid setting 3 (1,2)</t>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=10.84.2.256,defaultroute=floatingip,ctrl2portalid=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=10.84.2.20,defaultroute=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "ctrl2portalid=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "ctrl2portalid=3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=test,defaultroute=floatingip,ctrl2portalid=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "port=1,jumbofram=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 2 -s "port=test,jumbofram=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "port=enable,jumbofram=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 2 -s "port=enable,jumbofram=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 3 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "test=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 2 -s "test=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -c 2 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "test=1,jumbofram=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -m -c </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -m -c 2 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -t </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -t portal -c 2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -t portal -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -c 2 -t </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -c 2 -t port -p 1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">net -a mod -c 2 -t port -p 2 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -t port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -t port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m -c 2 -t portal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -t portal -c 2 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=enable,defaultroute=floatingip"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=disable,defaultroute=staticip"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=disable,defaultroute=ioportal,ctrl2portalid=2,wol=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=enable,defaultroute=ioportal,ctrl2portalid=1,wol=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable ipv4 for portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable ipv4 for portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable ipv6 for portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable ipv6 for portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -m -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -m -f ipv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -m -f ipv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To enable IO support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To disable IO support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupportIO: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupportIO: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "port=enable,jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t port -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 2 -s "port=disable,jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t port -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortStatus: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumboFrame: Enabled</t>
-  </si>
-  <si>
-    <t>JumboFrame: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortStatus: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "ip=10.84.2.90,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To enable IO support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -v</t>
+    <t>IP: 10.84.2.149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "ip=10.84.2.149,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "ip=10.84.2.149,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHCP: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv4(Disabled)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,91 +842,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProtocolFamily: IPv6(Enabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolFamily: IPv6(Disabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv4 should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv6 should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv6 should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical IPv4 should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical IPv4 should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical IPv6 should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical IPv6 should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical ipv4 should be modified by "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical ipv4 should be modified by "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -f ipv6 -s "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -m -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical ipv6 should be modified by "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical ipv6 should be modified by "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -t portal -c 2 -f ipv4 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -t portal -c 2 -f ipv6 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -f ipv4 -s "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv4 should be modified by "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv4 should be modified by "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "defaultroute=ioportal,ctrl2portalid=1"</t>
+    <t>IP: 10.84.2.164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=enable,defaultroute=ioportal,ctrl2portalid=10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation failed as the portal id specified is invalid</t>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "test=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,22 +1221,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="109.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="2" width="64.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
@@ -1142,7 +1377,7 @@
     <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1153,12 +1388,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1179,12 +1414,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1205,36 +1440,214 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1244,38 +1657,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.125" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="36.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="32.75" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="16.125" bestFit="1" customWidth="1"/>
@@ -1319,7 +1731,7 @@
     <col min="71" max="71" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1330,115 +1742,356 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T3" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U3" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="V3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1448,18 +2101,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="98.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="51.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
@@ -1469,7 +2122,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1483,547 +2136,259 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="103.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="109.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>149</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>149</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2033,17 +2398,304 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="101.25" customWidth="1"/>
-    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="112.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="123.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="95.5" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2063,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2071,7 +2723,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2082,18 +2734,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2104,7 +2756,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2115,7 +2767,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2126,18 +2778,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2148,7 +2800,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2159,7 +2811,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2171,7 +2823,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2183,7 +2835,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2195,7 +2847,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2207,7 +2859,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2218,32 +2870,32 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
+      <c r="A16" t="s">
+        <v>220</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2255,7 +2907,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2267,7 +2919,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -2279,7 +2931,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2291,57 +2943,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2351,12 +2958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2389,7 +2996,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2400,7 +3007,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2411,7 +3018,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2422,7 +3029,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2433,7 +3040,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2444,7 +3051,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2455,7 +3062,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2466,7 +3073,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2477,7 +3084,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2488,23 +3095,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2514,12 +3110,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2541,7 +3137,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2552,7 +3148,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2563,7 +3159,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2574,7 +3170,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2585,7 +3181,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2596,7 +3192,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2607,7 +3203,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2618,7 +3214,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2629,7 +3225,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2640,10 +3236,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -2651,7 +3247,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2662,7 +3258,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2673,7 +3269,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2684,7 +3280,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>

--- a/data/net.xlsx
+++ b/data/net.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="need_manual_test" sheetId="13" r:id="rId1"/>
@@ -2400,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3114,7 +3114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/data/net.xlsx
+++ b/data/net.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="need_manual_test" sheetId="13" r:id="rId1"/>
@@ -377,491 +377,491 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>net -a disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -t port -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumboFrame: Enabled</t>
+  </si>
+  <si>
+    <t>JumboFrame: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv4(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv6(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv6(Disabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv4 should be modified by "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv4 should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -f ipv6 -s "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv6 should be modified by "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical ipv6 should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -t port -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -t port -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 configurations should be listed on ctrl 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 2 configurations should be listed on ctrl 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all port configurations should be listed on ctrl 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortId:</t>
+  </si>
+  <si>
+    <t>CtrlId:</t>
+  </si>
+  <si>
+    <t>JumboFrame:</t>
+  </si>
+  <si>
+    <t>PortStatus:</t>
+  </si>
+  <si>
+    <t>LinkStats:</t>
+  </si>
+  <si>
+    <t>MacAddress:</t>
+  </si>
+  <si>
+    <t>MaxSupportSpeed:</t>
+  </si>
+  <si>
+    <t>CurrentSpeed:</t>
+  </si>
+  <si>
+    <t>RelativePortals:</t>
+  </si>
+  <si>
+    <t>LinkLocalIP:</t>
+  </si>
+  <si>
+    <t>LinkLocalIPMask:</t>
+  </si>
+  <si>
+    <t>should display a list of physical portal IP configurations by verbose mode</t>
+  </si>
+  <si>
+    <t>should display a list of port configurations by verbose mode</t>
+  </si>
+  <si>
+    <t>all port configurations should be listed on ctrl 2 by verbose mode</t>
+  </si>
+  <si>
+    <t>port 1 configurations should be listed on ctrl 2 by verbose mode</t>
+  </si>
+  <si>
+    <t>port 2 configurations should be listed on ctrl 2 by verbose mode</t>
+  </si>
+  <si>
+    <t>static IP info should be listed by verbose mode</t>
+  </si>
+  <si>
+    <t>portal configurations should be listed on ctrl 2 by verbose mode</t>
+  </si>
+  <si>
+    <t>net -v</t>
+  </si>
+  <si>
+    <t>net -t portal -v</t>
+  </si>
+  <si>
+    <t>net -t port -v</t>
+  </si>
+  <si>
+    <t>net -c 2 -t port -v</t>
+  </si>
+  <si>
+    <t>net -c 2 -t port -p 1 -v</t>
+  </si>
+  <si>
+    <t>net -c 2 -t port -p 2 -v</t>
+  </si>
+  <si>
+    <t>net -m -v</t>
+  </si>
+  <si>
+    <t>net -m -c 2 -t portal -v</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Ctrl1PrimaryDNS:</t>
+  </si>
+  <si>
+    <t>Ctrl1SecondaryDNS:</t>
+  </si>
+  <si>
+    <t>Ctrl2PrimaryDNS:</t>
+  </si>
+  <si>
+    <t>Ctrl2SecondaryDNS:</t>
+  </si>
+  <si>
+    <t>SupportIO:</t>
+  </si>
+  <si>
+    <t>net -a enable -t portal -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -t portal -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -t port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m -t portal -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a enable -m -t portal -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To enable IO support for port type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -t portal -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv4(Disabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -t port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To disable IO support for port type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportIO: Disabled</t>
+  </si>
+  <si>
+    <t>SupportIO: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m -t portal -f ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal ipv4 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal ipv4 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a disable -m -t portal -f ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal ipv6 should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical portal ipv6 should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv6(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send command(steps)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -t portal -f ipv4 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -m -c 2 -t portal -f ipv6 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=disable,defaultroute=staticip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable,defaultroute=ioportal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable,defaultroute=floatingip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=enable,defaultroute=ioportal,ctrl2portalid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "autodns=enable,defaultroute=ioportal,ctrl2portalid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv4 should be modified by "autodns=disable,defaultroute=staticip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 should be disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHCP: Disabled</t>
+  </si>
+  <si>
+    <t>IP: 10.84.2.163</t>
+  </si>
+  <si>
+    <t>IPMask: 255.255.255.0</t>
+  </si>
+  <si>
+    <t>Gateway: 10.84.2.1</t>
+  </si>
+  <si>
+    <t>DHCP: Enabled</t>
+  </si>
+  <si>
+    <t>net -a mod -t portal -f ipv4 -s "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -f ipv6 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -f ipv6 -s "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be modified by "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal ipv6 should be modified by "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 1:2:3:4:5:6:7:8</t>
+  </si>
+  <si>
+    <t>IPMask: a:b:3:4:5:6:7:8</t>
+  </si>
+  <si>
+    <t>Gateway: ::</t>
+  </si>
+  <si>
+    <t>Ctrl2PrimaryDNS: 10.84.2.156</t>
+  </si>
+  <si>
+    <t>Ctrl2SecondaryDNS: 111.111.111.111</t>
+  </si>
+  <si>
+    <t>WakeOnLan: Enabled</t>
+  </si>
+  <si>
+    <t>DefaultRoute: floatingIP</t>
+  </si>
+  <si>
+    <t>Ctrl1PrimaryDNS: 10.84.2.253</t>
+  </si>
+  <si>
+    <t>Ctrl1SecondaryDNS: 111.111.111.222</t>
+  </si>
+  <si>
+    <t>WakeOnLan: Disabled</t>
+  </si>
+  <si>
+    <t>AutoDNS: Enabled</t>
+  </si>
+  <si>
+    <t>DefaultRoute: ioPortal</t>
+  </si>
+  <si>
+    <t>Ctrl2PortalId: 0</t>
+  </si>
+  <si>
+    <t>AutoDNS: Disabled</t>
+  </si>
+  <si>
+    <t>DefaultRoute: staticIP</t>
+  </si>
+  <si>
+    <t>LinkLocalIPMask: a:b:3:4:5:6:7:8</t>
+  </si>
+  <si>
+    <t>net -a enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -f ipv4 -s "dhcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "hcp=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 10.84.2.149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "ip=10.84.2.149,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal should be modified by "ip=10.84.2.149,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHCP: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv4(Disabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtocolFamily: IPv4(Enabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 10.84.2.164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -t portal -s "autodns=enable,defaultroute=ioportal,ctrl2portalid=10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation failed as the portal id specified is invalid</t>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -a mod -c 2 -t port -p 1 -s "test=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net -c 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>net -a mod -t portal -s "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -t port -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumboFrame: Enabled</t>
-  </si>
-  <si>
-    <t>JumboFrame: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolFamily: IPv4(Enabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolFamily: IPv6(Enabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolFamily: IPv6(Disabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv4 should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv6 should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical ipv4 should be modified by "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical ipv4 should be modified by "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -f ipv6 -s "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical ipv6 should be modified by "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical ipv6 should be modified by "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv4 should be modified by "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 2 -t port -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 2 -t port -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 1 configurations should be listed on ctrl 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 2 configurations should be listed on ctrl 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all port configurations should be listed on ctrl 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortId:</t>
-  </si>
-  <si>
-    <t>CtrlId:</t>
-  </si>
-  <si>
-    <t>JumboFrame:</t>
-  </si>
-  <si>
-    <t>PortStatus:</t>
-  </si>
-  <si>
-    <t>LinkStats:</t>
-  </si>
-  <si>
-    <t>MacAddress:</t>
-  </si>
-  <si>
-    <t>MaxSupportSpeed:</t>
-  </si>
-  <si>
-    <t>CurrentSpeed:</t>
-  </si>
-  <si>
-    <t>RelativePortals:</t>
-  </si>
-  <si>
-    <t>LinkLocalIP:</t>
-  </si>
-  <si>
-    <t>LinkLocalIPMask:</t>
-  </si>
-  <si>
-    <t>should display a list of physical portal IP configurations by verbose mode</t>
-  </si>
-  <si>
-    <t>should display a list of port configurations by verbose mode</t>
-  </si>
-  <si>
-    <t>all port configurations should be listed on ctrl 2 by verbose mode</t>
-  </si>
-  <si>
-    <t>port 1 configurations should be listed on ctrl 2 by verbose mode</t>
-  </si>
-  <si>
-    <t>port 2 configurations should be listed on ctrl 2 by verbose mode</t>
-  </si>
-  <si>
-    <t>static IP info should be listed by verbose mode</t>
-  </si>
-  <si>
-    <t>portal configurations should be listed on ctrl 2 by verbose mode</t>
-  </si>
-  <si>
-    <t>net -v</t>
-  </si>
-  <si>
-    <t>net -t portal -v</t>
-  </si>
-  <si>
-    <t>net -t port -v</t>
-  </si>
-  <si>
-    <t>net -c 2 -t port -v</t>
-  </si>
-  <si>
-    <t>net -c 2 -t port -p 1 -v</t>
-  </si>
-  <si>
-    <t>net -c 2 -t port -p 2 -v</t>
-  </si>
-  <si>
-    <t>net -m -v</t>
-  </si>
-  <si>
-    <t>net -m -c 2 -t portal -v</t>
-  </si>
-  <si>
-    <t>Global settings</t>
-  </si>
-  <si>
-    <t>Ctrl1PrimaryDNS:</t>
-  </si>
-  <si>
-    <t>Ctrl1SecondaryDNS:</t>
-  </si>
-  <si>
-    <t>Ctrl2PrimaryDNS:</t>
-  </si>
-  <si>
-    <t>Ctrl2SecondaryDNS:</t>
-  </si>
-  <si>
-    <t>SupportIO:</t>
-  </si>
-  <si>
-    <t>net -a enable -t portal -f ipv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -t portal -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -t port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -m -t portal -f ipv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a enable -m -t portal -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To enable IO support for port type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -t portal -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv6 should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolFamily: IPv4(Disabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -t port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To disable IO support for port type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupportIO: Disabled</t>
-  </si>
-  <si>
-    <t>SupportIO: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -m -t portal -f ipv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal ipv4 should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal ipv4 should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a disable -m -t portal -f ipv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal ipv6 should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical portal ipv6 should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolFamily: IPv6(Enabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send command(steps)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -s "dhcp=disable,ip=10.84.2.163,ipmask=255.255.255.0,gateway=10.84.2.1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -t portal -f ipv4 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -m -c 2 -t portal -f ipv6 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=disable,defaultroute=staticip"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv4 should be modified by "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable,defaultroute=ioportal"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "primarydns=10.84.2.156,secondarydns=111.111.111.111,wol=enable,defaultroute=floatingip"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=enable,defaultroute=ioportal,ctrl2portalid=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv4 should be modified by "autodns=enable,defaultroute=ioportal,ctrl2portalid=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv4 should be modified by "autodns=disable,defaultroute=staticip"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 1 should be disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DHCP: Disabled</t>
-  </si>
-  <si>
-    <t>IP: 10.84.2.163</t>
-  </si>
-  <si>
-    <t>IPMask: 255.255.255.0</t>
-  </si>
-  <si>
-    <t>Gateway: 10.84.2.1</t>
-  </si>
-  <si>
-    <t>DHCP: Enabled</t>
-  </si>
-  <si>
-    <t>net -a mod -t portal -f ipv4 -s "primarydns=10.84.2.253,secondarydns=111.111.111.222,wol=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -f ipv6 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -f ipv6 -s "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv6 should be modified by "dhcp=disable,ip=1:2:3:4:5:6:7:8,ipmask=A:B:3:4:5:6:7:8,gateway=::"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal ipv6 should be modified by "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP: 1:2:3:4:5:6:7:8</t>
-  </si>
-  <si>
-    <t>IPMask: a:b:3:4:5:6:7:8</t>
-  </si>
-  <si>
-    <t>Gateway: ::</t>
-  </si>
-  <si>
-    <t>Ctrl2PrimaryDNS: 10.84.2.156</t>
-  </si>
-  <si>
-    <t>Ctrl2SecondaryDNS: 111.111.111.111</t>
-  </si>
-  <si>
-    <t>WakeOnLan: Enabled</t>
-  </si>
-  <si>
-    <t>DefaultRoute: floatingIP</t>
-  </si>
-  <si>
-    <t>Ctrl1PrimaryDNS: 10.84.2.253</t>
-  </si>
-  <si>
-    <t>Ctrl1SecondaryDNS: 111.111.111.222</t>
-  </si>
-  <si>
-    <t>WakeOnLan: Disabled</t>
-  </si>
-  <si>
-    <t>AutoDNS: Enabled</t>
-  </si>
-  <si>
-    <t>DefaultRoute: ioPortal</t>
-  </si>
-  <si>
-    <t>Ctrl2PortalId: 0</t>
-  </si>
-  <si>
-    <t>AutoDNS: Disabled</t>
-  </si>
-  <si>
-    <t>DefaultRoute: staticIP</t>
-  </si>
-  <si>
-    <t>LinkLocalIPMask: a:b:3:4:5:6:7:8</t>
-  </si>
-  <si>
-    <t>net -a enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -f ipv4 -s "dhcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "hcp=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP: 10.84.2.149</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "ip=10.84.2.149,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal should be modified by "ip=10.84.2.149,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DHCP: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolFamily: IPv4(Disabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProtocolFamily: IPv4(Enabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP: 10.84.2.164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -t portal -s "autodns=enable,defaultroute=ioportal,ctrl2portalid=10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation failed as the portal id specified is invalid</t>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -a mod -c 2 -t port -p 1 -s "test=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net -c 2 -test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,90 +1254,90 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
         <v>211</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1448,31 +1448,31 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>112</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>115</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>116</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>117</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>118</v>
-      </c>
-      <c r="K4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1480,104 +1480,104 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>111</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>113</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>114</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>115</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>117</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>118</v>
-      </c>
-      <c r="K5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>112</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>113</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>114</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>115</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>116</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>117</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>118</v>
-      </c>
-      <c r="K6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
         <v>111</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>114</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>116</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>117</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>118</v>
-      </c>
-      <c r="K7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -1588,10 +1588,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -1609,10 +1609,10 @@
         <v>31</v>
       </c>
       <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
         <v>120</v>
-      </c>
-      <c r="K8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -1623,10 +1623,10 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1644,10 +1644,10 @@
         <v>31</v>
       </c>
       <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
         <v>120</v>
-      </c>
-      <c r="K9" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1744,25 +1744,25 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>140</v>
-      </c>
-      <c r="G2" t="s">
-        <v>141</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -1771,7 +1771,7 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1780,7 +1780,7 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -1807,33 +1807,33 @@
         <v>32</v>
       </c>
       <c r="V2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" t="s">
         <v>120</v>
-      </c>
-      <c r="W2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>138</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>139</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>141</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
@@ -1842,7 +1842,7 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -1851,7 +1851,7 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
@@ -1878,164 +1878,164 @@
         <v>32</v>
       </c>
       <c r="V3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" t="s">
         <v>120</v>
-      </c>
-      <c r="W3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>112</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>115</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>116</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>117</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>118</v>
-      </c>
-      <c r="K4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
         <v>111</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>113</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>114</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>115</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>117</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>118</v>
-      </c>
-      <c r="K5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>112</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>113</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>114</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>115</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>116</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>117</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>118</v>
-      </c>
-      <c r="K6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
         <v>111</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>114</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>116</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>117</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>118</v>
-      </c>
-      <c r="K7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -2053,24 +2053,24 @@
         <v>31</v>
       </c>
       <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
         <v>120</v>
-      </c>
-      <c r="K8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -2088,10 +2088,10 @@
         <v>31</v>
       </c>
       <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
         <v>120</v>
-      </c>
-      <c r="K9" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2139,223 +2139,223 @@
         <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2400,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2418,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2432,238 +2432,238 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2871,13 +2871,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>220</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>221</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>

--- a/data/net.xlsx
+++ b/data/net.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="need_manual_test" sheetId="13" r:id="rId1"/>
@@ -846,9 +846,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operation failed as the portal id specified is invalid</t>
-  </si>
-  <si>
     <t>net -a mod -c 2 -t port -p 1 -s "jumboframe=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -862,6 +859,10 @@
   </si>
   <si>
     <t>net -a mod -t portal -s "ip=10.84.2.164,ipmask=255.255.255.0,gateway=10.84.2.1,dhcp=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1320,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>210</v>
@@ -2687,15 +2688,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="95.5" customWidth="1"/>
     <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2877,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -2943,7 +2944,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2996,7 +2997,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3084,7 +3085,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
